--- a/Processing/Demographics.Facebook.Processing/Data/1-DataFolha-20180928.xlsx
+++ b/Processing/Demographics.Facebook.Processing/Data/1-DataFolha-20180928.xlsx
@@ -71,10 +71,10 @@
 Centro Oeste</t>
   </si>
   <si>
-    <t>Bolsonaro</t>
-  </si>
-  <si>
-    <t>Haddad</t>
+    <t>Jair Bolsonaro</t>
+  </si>
+  <si>
+    <t>Fernando Haddad</t>
   </si>
   <si>
     <t>Ciro Gomes</t>
@@ -101,13 +101,13 @@
     <t>Vera (PSTU)</t>
   </si>
   <si>
-    <t>Guilherme Boulos (PSOL)</t>
-  </si>
-  <si>
-    <t>João Goulart Filho (PPL)</t>
-  </si>
-  <si>
-    <t>Eymael (DC)</t>
+    <t>Guilherme Boulos</t>
+  </si>
+  <si>
+    <t>João Goulart Filho</t>
+  </si>
+  <si>
+    <t>Eymael</t>
   </si>
   <si>
     <t>Em branco/ nulo/ nenhum</t>
@@ -156,7 +156,7 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -995,7 +995,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="1">
